--- a/thesis documentation/thesis/LiteratureSurvey.xlsx
+++ b/thesis documentation/thesis/LiteratureSurvey.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MasterThesis\SchedulingHeuristics\thesis documentation\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE92D1E5-AB92-4738-96F9-A209F0960B50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B155EC-A4F8-4555-B229-889E6EA89D19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9708" xr2:uid="{04D50067-0F64-437C-A7E4-E82ABCB0A941}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9708" activeTab="1" xr2:uid="{04D50067-0F64-437C-A7E4-E82ABCB0A941}"/>
   </bookViews>
   <sheets>
-    <sheet name="Performance Analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="Survey-Review" sheetId="2" r:id="rId2"/>
+    <sheet name="Survey-Review" sheetId="2" r:id="rId1"/>
+    <sheet name="Performance Analysis" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>Types of Task Scheduling Algorithms in Cloud Computing Environment</t>
   </si>
@@ -251,9 +251,6 @@
     <t>Scheduling of Independent Tasks in Cloud Computing Using Modified Genetic Algorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">The modified genetic algorithm uses the genetic algorithm based scheduling where the initial population is generated with Enhanced  Max-Min and its performance is evaluated against </t>
-  </si>
-  <si>
     <t>Heuristics</t>
   </si>
   <si>
@@ -303,13 +300,74 @@
   </si>
   <si>
     <t>A review of task scheduling based on meta-heuristics</t>
+  </si>
+  <si>
+    <t>Two cases
+-No. of VMs 4 , Vaying Cloudlets
+-No. of VMs 8, Varying Cloudlets</t>
+  </si>
+  <si>
+    <t>The modified genetic algorithm uses the genetic algorithm based scheduling where the initial population is generated with Enhanced  Max-Min and its performance is evaluated against other algorithms</t>
+  </si>
+  <si>
+    <t>Task Scheduling Optimization in Cloud Computing Based on Heuristic Algorithm</t>
+  </si>
+  <si>
+    <t>The proposed algorithm optimizes the task scheduling process by PSO. The PSO based task scheduling model is compared with PSO embed in cross over and mutation, PSO embed in local search</t>
+  </si>
+  <si>
+    <t>Cost 
+Execution time</t>
+  </si>
+  <si>
+    <t>Improved PSO-based Task Scheduling Algorithm in Cloud Computing</t>
+  </si>
+  <si>
+    <t>In this algorithm, the fast convergence of simulated annealing is utilized in each iteration of PSO algorithm. This algorithm adds simulated annealing which has fast random global searching ability, into every iteration of PSO, thus improving convergence rate and accuracy</t>
+  </si>
+  <si>
+    <t>Avergae Execution time</t>
+  </si>
+  <si>
+    <t>An efficient meta-heuristic algorithm for grid computing</t>
+  </si>
+  <si>
+    <t>PSO searches the problem space globally and needs to be combined with other methods to search locally as well. The proposed model combines PSO with gravitational emulation local search (GELS), that is, Local search based on GELS applied on results obtained from PSO.</t>
+  </si>
+  <si>
+    <t>Task scheduling algorithm based on hybrid particle swarm optimization in cloud computing environment</t>
+  </si>
+  <si>
+    <t>Proposes a Hybrid Particle Swarm Optimization (HPSO) based scheduling heuristic to balance the load across the entire system while trying to minimize the makespan of a given task sets. Velocity updation is done using  vector differential operator. Particle is moved to new position only if it gives better fitness value. If particle gets stagnated, then  particle is moved to new position</t>
+  </si>
+  <si>
+    <t>Makespan
+Average resource utilization</t>
+  </si>
+  <si>
+    <t>Task Scheduling using Modified PSO Algorithm in Cloud Computing Environment</t>
+  </si>
+  <si>
+    <t>The modified PSO, unlike the Standard PSO generates the initial population using the SJFP algorithm( Shorstest Cloudlet Fastest Processing Element) rather than using the random way (randomness decreases the chance of algorithm to converge to best solution). The evaluation is compared against 
+-GA
+-PSO</t>
+  </si>
+  <si>
+    <t>Heuristics Based Genetic Algorithm for Scheduling Static Tasks in Homogeneous Parallel System</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heuristics based genetic algorithm (HGA) based on MET (Minimum execution time)/Min-Min heuristics and b-level or t-level precedence resolution uses a initial population where each individual of the population is generated through a minimum execution time or min-min heuristic along with b-level or t-level precedence resolution to avoid the problem of same execution time or completion time and same precedence</t>
+  </si>
+  <si>
+    <t>Makespan
+Flowtime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,8 +375,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,8 +395,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -377,11 +447,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,9 +480,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,6 +489,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -720,228 +827,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473546EE-7C51-45E3-A523-DBB57CC0D071}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="90.6640625" customWidth="1"/>
-    <col min="2" max="2" width="62.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="40.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9354A213-CCD3-4E05-A0AC-0142B159B27C}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,76 +840,370 @@
     <col min="3" max="3" width="55.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>59</v>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473546EE-7C51-45E3-A523-DBB57CC0D071}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="90.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/thesis documentation/thesis/LiteratureSurvey.xlsx
+++ b/thesis documentation/thesis/LiteratureSurvey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MasterThesis\SchedulingHeuristics\thesis documentation\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B155EC-A4F8-4555-B229-889E6EA89D19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE16F3D-A994-4097-A2AC-380A32F2DFC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9708" activeTab="1" xr2:uid="{04D50067-0F64-437C-A7E4-E82ABCB0A941}"/>
   </bookViews>
@@ -151,9 +151,6 @@
     <t>Efficient Task Scheduling Algorithms for Cloud Computing Environment</t>
   </si>
   <si>
-    <t>Discusses</t>
-  </si>
-  <si>
     <t>Performance evaluation of scheduling heuristics
 -Shortest Cloudlet Fastest Processing
 -Longest Cloudlet Fastest Processing
@@ -361,6 +358,9 @@
   <si>
     <t>Makespan
 Flowtime</t>
+  </si>
+  <si>
+    <t>Strategy</t>
   </si>
 </sst>
 </file>
@@ -842,71 +842,71 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +919,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,16 +933,16 @@
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -1034,74 +1034,74 @@
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>23</v>
@@ -1109,57 +1109,57 @@
     </row>
     <row r="15" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>23</v>
@@ -1167,38 +1167,38 @@
     </row>
     <row r="20" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="D22" s="16"/>
     </row>

--- a/thesis documentation/thesis/LiteratureSurvey.xlsx
+++ b/thesis documentation/thesis/LiteratureSurvey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MasterThesis\SchedulingHeuristics\thesis documentation\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE16F3D-A994-4097-A2AC-380A32F2DFC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E045A8AB-63D1-4A1C-928C-DB18A8206B57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9708" activeTab="1" xr2:uid="{04D50067-0F64-437C-A7E4-E82ABCB0A941}"/>
   </bookViews>
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473546EE-7C51-45E3-A523-DBB57CC0D071}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
